--- a/张行全个人资金记录.xlsx
+++ b/张行全个人资金记录.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="张行全个人资金记录" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>张行全个人支出记录</t>
     <rPh sb="0" eb="1">
@@ -54,9 +54,6 @@
       <t>zhi'chu'hsi'jian</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>汪龙玉</t>
   </si>
   <si>
     <t>支出金额/元</t>
@@ -214,7 +211,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,12 +226,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -329,7 +320,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -340,25 +331,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -369,11 +354,17 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -657,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="167" workbookViewId="0">
-      <selection activeCell="D111" sqref="D111"/>
+    <sheetView tabSelected="1" zoomScale="167" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -674,74 +665,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="12"/>
-      <c r="F1" s="9" t="s">
-        <v>6</v>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="10"/>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
+      <c r="I2" s="1" t="s">
+        <v>4</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1000</v>
-      </c>
-      <c r="C3" s="4">
-        <v>43186</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="6"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="12"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="3">
-        <v>1000</v>
-      </c>
-      <c r="C4" s="4">
-        <v>43193</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="6"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="12"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
@@ -1684,40 +1665,40 @@
       <c r="I98" s="2"/>
     </row>
     <row r="100" spans="1:9" ht="26" x14ac:dyDescent="0.2">
-      <c r="A100" s="9" t="s">
-        <v>9</v>
+      <c r="A100" s="11" t="s">
+        <v>8</v>
       </c>
-      <c r="B100" s="9"/>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="D101" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D101" s="1" t="s">
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B102" s="13">
+      <c r="B102" s="6">
         <v>43198</v>
       </c>
       <c r="C102" s="2"/>
-      <c r="D102" s="14"/>
+      <c r="D102" s="7"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="2"/>
-      <c r="B103" s="13"/>
+      <c r="B103" s="6"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
     </row>
@@ -1788,8 +1769,7 @@
       <c r="D114" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A3:A4"/>
+  <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="A100:D100"/>

--- a/张行全个人资金记录.xlsx
+++ b/张行全个人资金记录.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>张行全个人支出记录</t>
     <rPh sb="0" eb="1">
@@ -147,6 +147,16 @@
   </si>
   <si>
     <t>甄祝宝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>甄祝宝</t>
+    <rPh sb="0" eb="1">
+      <t>zhen'zhu'bao</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zhu'fu</t>
+    </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -345,6 +355,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -356,15 +375,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -649,7 +659,7 @@
   <dimension ref="A1:I114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="167" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -665,18 +675,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="10"/>
-      <c r="F1" s="11" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="13"/>
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
     </row>
     <row r="2" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -705,20 +715,26 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="14"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="12"/>
+      <c r="A3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="8">
+        <v>4600</v>
+      </c>
+      <c r="C3" s="9">
+        <v>43218</v>
+      </c>
+      <c r="D3" s="8"/>
       <c r="F3" s="3"/>
       <c r="G3" s="4"/>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="12"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="8"/>
       <c r="F4" s="3"/>
       <c r="G4" s="4"/>
       <c r="H4" s="5"/>
@@ -1665,12 +1681,12 @@
       <c r="I98" s="2"/>
     </row>
     <row r="100" spans="1:9" ht="26" x14ac:dyDescent="0.2">
-      <c r="A100" s="11" t="s">
+      <c r="A100" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B100" s="11"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="11"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
